--- a/ConceptMap-R5-OperationOutcome-elements-for-R4-OperationOutcome.xlsx
+++ b/ConceptMap-R5-OperationOutcome-elements-for-R4-OperationOutcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.7860704-06:00</t>
+    <t>2026-02-09T22:05:44.0988683-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/OperationOutcome#OperationOutcome.issue.expression</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.expression</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,19 +683,6 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ConceptMap-R5-OperationOutcome-elements-for-R4-OperationOutcome.xlsx
+++ b/ConceptMap-R5-OperationOutcome-elements-for-R4-OperationOutcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.0988683-06:00</t>
+    <t>2026-02-17T14:42:27.4421854-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
